--- a/01_Documents/WorkFlowModules.xlsx
+++ b/01_Documents/WorkFlowModules.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model1" sheetId="1" r:id="rId1"/>
     <sheet name="Model2" sheetId="2" r:id="rId2"/>
     <sheet name="Model3" sheetId="3" r:id="rId3"/>
     <sheet name="Model4" sheetId="4" r:id="rId4"/>
+    <sheet name="Model5" sheetId="6" r:id="rId5"/>
+    <sheet name="eApproval" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1355,6 +1358,2054 @@
         <a:xfrm>
           <a:off x="2671763" y="2905125"/>
           <a:ext cx="0" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>1732</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3109479" y="306532"/>
+          <a:ext cx="1672071" cy="626052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>发起</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42429</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1289338" y="1693718"/>
+          <a:ext cx="1672071" cy="955964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>审批</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>E0300084</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47192</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2125374" y="932584"/>
+          <a:ext cx="1820141" cy="761134"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>183573</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>193097</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2885209" y="5985163"/>
+          <a:ext cx="1672070" cy="626052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>结束</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28142</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47192</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2106324" y="2649682"/>
+          <a:ext cx="19050" cy="1131742"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23379</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>32904</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1270288" y="3781424"/>
+          <a:ext cx="1672071" cy="1102303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>审批</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>E0344652</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28142</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>188335</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2106324" y="4883727"/>
+          <a:ext cx="1614920" cy="1101436"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>202622</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4330</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4566804" y="1771649"/>
+          <a:ext cx="1672071" cy="843396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>审批</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2-1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>E0299598</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>207385</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>39831</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3945515" y="932584"/>
+          <a:ext cx="1457325" cy="839065"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>202622</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>96980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4330</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4566804" y="3906980"/>
+          <a:ext cx="1672071" cy="1080655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>审批</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2-2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>E0123456</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>207385</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>207385</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>96980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5402840" y="2615045"/>
+          <a:ext cx="0" cy="1291935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28142</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>207385</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144606</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2106324" y="2615045"/>
+          <a:ext cx="3296516" cy="1166379"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>188335</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>207385</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接箭头连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3721244" y="4987635"/>
+          <a:ext cx="1681596" cy="997528"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="180975"/>
+          <a:ext cx="1685925" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>发起</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>175532</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6298746" y="1381125"/>
+          <a:ext cx="1722665" cy="640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DOA1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>197304</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5912304" y="821871"/>
+          <a:ext cx="1247775" cy="559254"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>156482</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>42182</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6279696" y="5645604"/>
+          <a:ext cx="1722665" cy="640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Distributor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>175532</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>61233</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7523389" y="2805793"/>
+          <a:ext cx="1722665" cy="640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DOA2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>51707</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8330293" y="4044043"/>
+          <a:ext cx="1722664" cy="640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DOA3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7160079" y="2022021"/>
+          <a:ext cx="1224643" cy="783772"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7141029" y="2022021"/>
+          <a:ext cx="19050" cy="3623583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8384722" y="3446689"/>
+          <a:ext cx="806903" cy="597354"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7141029" y="3446689"/>
+          <a:ext cx="1243693" cy="2198915"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7141029" y="4684939"/>
+          <a:ext cx="2050596" cy="960665"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2573110" y="2902393"/>
+          <a:ext cx="2311854" cy="650421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DIT_Return_Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="2907836"/>
+          <a:ext cx="2168979" cy="640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DIT_Order_Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106137</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55108</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2555423" y="2106385"/>
+          <a:ext cx="1173614" cy="796008"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106137</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>77550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1227365" y="2106385"/>
+          <a:ext cx="1328058" cy="801451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="997403" y="4863183"/>
+          <a:ext cx="2918733" cy="1061357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DIT_Head_of_SupplyChain</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7484</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1227365" y="3548732"/>
+          <a:ext cx="1229405" cy="1314451"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7484</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55108</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>87076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2456770" y="3552814"/>
+          <a:ext cx="1272267" cy="1310369"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>61233</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>151041</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1694090" y="1465489"/>
+          <a:ext cx="1722665" cy="640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DIT</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106137</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>197304</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2555423" y="821871"/>
+          <a:ext cx="3356881" cy="643618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>42182</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>131990</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>117020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4736646" y="8320767"/>
+          <a:ext cx="1722665" cy="640896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>End</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7484</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2456770" y="5924540"/>
+          <a:ext cx="3141209" cy="2396227"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5597979" y="6286500"/>
+          <a:ext cx="1543050" cy="2034267"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1720,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y11:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1731,4 +3782,37 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AT23" sqref="AT23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR47" sqref="AR47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>